--- a/test/files/workbook.xlsx
+++ b/test/files/workbook.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -392,13 +393,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" showGridLines="0">
       <pane/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="100" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,13 +418,101 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0">
+      <pane/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="100" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -433,16 +525,9 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>6</v>
       </c>
@@ -455,16 +540,9 @@
       <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>11</v>
       </c>
@@ -477,86 +555,7 @@
       <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
+      <c r="E4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/files/workbook.xlsx
+++ b/test/files/workbook.xlsx
@@ -510,7 +510,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
@@ -525,7 +527,9 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2"/>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -540,7 +544,9 @@
       <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3"/>
+      <c r="E3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -555,7 +561,9 @@
       <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4"/>
+      <c r="E4">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
